--- a/public/admin/archivos/FORMATO_CLIENTES.xlsx
+++ b/public/admin/archivos/FORMATO_CLIENTES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEOPAGUPA\public\admin\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\multiusuarios\public\admin\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="236">
   <si>
     <r>
       <t>Lleva Contabilidad (NO=0), (SI = 1)</t>
@@ -57,15 +54,6 @@
     <t>S/N</t>
   </si>
   <si>
-    <t>Machala</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Credito 1</t>
-  </si>
-  <si>
     <t>Lleva Contabilidad</t>
   </si>
   <si>
@@ -78,37 +66,13 @@
     <t>RUC</t>
   </si>
   <si>
-    <t>Guayaquil</t>
-  </si>
-  <si>
-    <t>Plata</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
     <t>Cédula</t>
   </si>
   <si>
-    <t>Oro</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
     <t>PASAPORTE / IDENTIFICACIÓN TRIBUTARIA DEL EXTERIOR</t>
   </si>
   <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>Quevedo</t>
-  </si>
-  <si>
     <t>TIPO CLIENTE</t>
-  </si>
-  <si>
-    <t>Cliente 1</t>
   </si>
   <si>
     <r>
@@ -290,11 +254,647 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>CLIENTE FINAL</t>
+  </si>
+  <si>
+    <t>SIN CRÉDITO</t>
+  </si>
+  <si>
+    <t>SIN CATEGORIA</t>
+  </si>
+  <si>
+    <t>24 DE MAYO</t>
+  </si>
+  <si>
+    <t>AGUARICO</t>
+  </si>
+  <si>
+    <t>ALAUSI</t>
+  </si>
+  <si>
+    <t>ALFREDO BAQUERIZO</t>
+  </si>
+  <si>
+    <t>AMBATO</t>
+  </si>
+  <si>
+    <t>ANTONIO ANTE</t>
+  </si>
+  <si>
+    <t>ARAJUNO</t>
+  </si>
+  <si>
+    <t>ARCHIDONA</t>
+  </si>
+  <si>
+    <t>ARENILLAS</t>
+  </si>
+  <si>
+    <t>ATACAMES</t>
+  </si>
+  <si>
+    <t>ATAHUALPA</t>
+  </si>
+  <si>
+    <t>AZOGUES</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>BABAHOYO</t>
+  </si>
+  <si>
+    <t>BALAO</t>
+  </si>
+  <si>
+    <t>BALSAS</t>
+  </si>
+  <si>
+    <t>BAÑOS DE AGUA SANTA</t>
+  </si>
+  <si>
+    <t>BIBLIAN</t>
+  </si>
+  <si>
+    <t>BOLIVAR</t>
+  </si>
+  <si>
+    <t>BOLÍVAR</t>
+  </si>
+  <si>
+    <t>BUENA FE</t>
+  </si>
+  <si>
+    <t>CALUMA</t>
+  </si>
+  <si>
+    <t>CALVAS</t>
+  </si>
+  <si>
+    <t>CAMILO PONCE ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>CAÑAR</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO AROSEMENA</t>
+  </si>
+  <si>
+    <t>CASCALES</t>
+  </si>
+  <si>
+    <t>CATAMAYO</t>
+  </si>
+  <si>
+    <t>CAYAMBE</t>
+  </si>
+  <si>
+    <t>CELICA</t>
+  </si>
+  <si>
+    <t>CENTINELA DEL CONDOR</t>
+  </si>
+  <si>
+    <t>CEVALLOS</t>
+  </si>
+  <si>
+    <t>CHAGUARPAMBA</t>
+  </si>
+  <si>
+    <t>CHAMBO</t>
+  </si>
+  <si>
+    <t>CHILLA</t>
+  </si>
+  <si>
+    <t>CHIMBO</t>
+  </si>
+  <si>
+    <t>CHINCHIPE</t>
+  </si>
+  <si>
+    <t>CHONE</t>
+  </si>
+  <si>
+    <t>CHORDELEG</t>
+  </si>
+  <si>
+    <t>CHUNCHI</t>
+  </si>
+  <si>
+    <t>COLIMES</t>
+  </si>
+  <si>
+    <t>COLTA</t>
+  </si>
+  <si>
+    <t>CORONEL MARCELINO</t>
+  </si>
+  <si>
+    <t>COTACACHI</t>
+  </si>
+  <si>
+    <t>CUENCA</t>
+  </si>
+  <si>
+    <t>CUMANDA</t>
+  </si>
+  <si>
+    <t>CUYABENO</t>
+  </si>
+  <si>
+    <t>DAULE</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>ECHEANDIA</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t>EL CHACO</t>
+  </si>
+  <si>
+    <t>EL EMPALME</t>
+  </si>
+  <si>
+    <t>EL GUABO</t>
+  </si>
+  <si>
+    <t>ELOY ALFARO</t>
+  </si>
+  <si>
+    <t>EL PAN</t>
+  </si>
+  <si>
+    <t>EL PANGUI</t>
+  </si>
+  <si>
+    <t>EL TAMBO</t>
+  </si>
+  <si>
+    <t>ESMERALDAS</t>
+  </si>
+  <si>
+    <t>ESPEJO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>FLAVIO ALFARO</t>
+  </si>
+  <si>
+    <t>GENERAL ANTONIO ELIZALDE</t>
+  </si>
+  <si>
+    <t>GIRON</t>
+  </si>
+  <si>
+    <t>GONZALO PIZARRO</t>
+  </si>
+  <si>
+    <t>GONZANAMA</t>
+  </si>
+  <si>
+    <t>GUALACEO</t>
+  </si>
+  <si>
+    <t>GUALAQUIZA</t>
+  </si>
+  <si>
+    <t>GUAMOTE</t>
+  </si>
+  <si>
+    <t>GUANO</t>
+  </si>
+  <si>
+    <t>GUARANDA</t>
+  </si>
+  <si>
+    <t>GUAYAQUIL</t>
+  </si>
+  <si>
+    <t>HUAMBOYA</t>
+  </si>
+  <si>
+    <t>HUAQUILLAS</t>
+  </si>
+  <si>
+    <t>IBARRA</t>
+  </si>
+  <si>
+    <t>ISABELA</t>
+  </si>
+  <si>
+    <t>ISIDRO AYORA</t>
+  </si>
+  <si>
+    <t>JAMA</t>
+  </si>
+  <si>
+    <t>JARAMIJO</t>
+  </si>
+  <si>
+    <t>JIPIJAPA</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA</t>
+  </si>
+  <si>
+    <t>LAGO AGRIO</t>
+  </si>
+  <si>
+    <t>LA JOYA DE LOS SACHAS</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>LA MANA</t>
+  </si>
+  <si>
+    <t>LAS LAJAS</t>
+  </si>
+  <si>
+    <t>LAS NAVES</t>
+  </si>
+  <si>
+    <t>LATACUNGA</t>
+  </si>
+  <si>
+    <t>LA TRONCAL</t>
+  </si>
+  <si>
+    <t>LIMON INDANZA</t>
+  </si>
+  <si>
+    <t>LOGROÑO</t>
+  </si>
+  <si>
+    <t>LOJA</t>
+  </si>
+  <si>
+    <t>LOMAS DE SARGENTILLO</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>MACARA</t>
+  </si>
+  <si>
+    <t>MACHALA</t>
+  </si>
+  <si>
+    <t>MANTA</t>
+  </si>
+  <si>
+    <t>MARCABELI</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MERA</t>
+  </si>
+  <si>
+    <t>MIRA</t>
+  </si>
+  <si>
+    <t>MOCACHE</t>
+  </si>
+  <si>
+    <t>MOCHA</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>MONTECRISTI</t>
+  </si>
+  <si>
+    <t>MONTUFAR</t>
+  </si>
+  <si>
+    <t>MORONA</t>
+  </si>
+  <si>
+    <t>MUISNE</t>
+  </si>
+  <si>
+    <t>NABON</t>
+  </si>
+  <si>
+    <t>NANGARITZA</t>
+  </si>
+  <si>
+    <t>NARANJAL</t>
+  </si>
+  <si>
+    <t>NARANJITO</t>
+  </si>
+  <si>
+    <t>NOBOL</t>
+  </si>
+  <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>OÑA</t>
+  </si>
+  <si>
+    <t>ORELLANA</t>
+  </si>
+  <si>
+    <t>OTAVALO</t>
+  </si>
+  <si>
+    <t>PABLO SEXTO</t>
+  </si>
+  <si>
+    <t>PALANDA</t>
+  </si>
+  <si>
+    <t>PALENQUE</t>
+  </si>
+  <si>
+    <t>PALESTINA</t>
+  </si>
+  <si>
+    <t>PALLATANGA</t>
+  </si>
+  <si>
+    <t>PALORA</t>
+  </si>
+  <si>
+    <t>PALTAS</t>
+  </si>
+  <si>
+    <t>PANGUA</t>
+  </si>
+  <si>
+    <t>PAQUISHA</t>
+  </si>
+  <si>
+    <t>PASAJE</t>
+  </si>
+  <si>
+    <t>PASTAZA</t>
+  </si>
+  <si>
+    <t>PATATE</t>
+  </si>
+  <si>
+    <t>PAUTE</t>
+  </si>
+  <si>
+    <t>PEDERNALES</t>
+  </si>
+  <si>
+    <t>PEDRO CARBO</t>
+  </si>
+  <si>
+    <t>PEDRO MONCAYO</t>
+  </si>
+  <si>
+    <t>PEDRO VICENTE MALDONADO</t>
+  </si>
+  <si>
+    <t>PENIPE</t>
+  </si>
+  <si>
+    <t>PIMAMPIRO</t>
+  </si>
+  <si>
+    <t>PIÑAS</t>
+  </si>
+  <si>
+    <t>PINDAL</t>
+  </si>
+  <si>
+    <t>PLAYAS</t>
+  </si>
+  <si>
+    <t>PORTOVELO</t>
+  </si>
+  <si>
+    <t>PORTOVIEJO</t>
+  </si>
+  <si>
+    <t>PUCARA</t>
+  </si>
+  <si>
+    <t>PUEBLOVIEJO</t>
+  </si>
+  <si>
+    <t>PUERTO LOPEZ</t>
+  </si>
+  <si>
+    <t>PUERTO QUITO</t>
+  </si>
+  <si>
+    <t>PUJULI</t>
+  </si>
+  <si>
+    <t>PUTUMAYO</t>
+  </si>
+  <si>
+    <t>PUYANGO</t>
+  </si>
+  <si>
+    <t>QUERO</t>
+  </si>
+  <si>
+    <t>QUEVEDO</t>
+  </si>
+  <si>
+    <t>QUIJOS</t>
+  </si>
+  <si>
+    <t>QUILANGA</t>
+  </si>
+  <si>
+    <t>QUININDE</t>
+  </si>
+  <si>
+    <t>QUINSALOMA</t>
+  </si>
+  <si>
+    <t>QUITO</t>
+  </si>
+  <si>
+    <t>RIOBAMBA</t>
+  </si>
+  <si>
+    <t>RIOVERDE</t>
+  </si>
+  <si>
+    <t>ROCAFUERTE</t>
+  </si>
+  <si>
+    <t>RUMIÑAHUI</t>
+  </si>
+  <si>
+    <t>SALCEDO</t>
+  </si>
+  <si>
+    <t>SALITRE</t>
+  </si>
+  <si>
+    <t>SAMBORONDON</t>
+  </si>
+  <si>
+    <t>SAN CRISTOBAL</t>
+  </si>
+  <si>
+    <t>SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>SAN JANCINTO</t>
+  </si>
+  <si>
+    <t>SAN JUAN BOSCO</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL DE LOS BANCOS</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL DE URCUQUI</t>
+  </si>
+  <si>
+    <t>SAN PEDRO</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE PELILEO</t>
+  </si>
+  <si>
+    <t>SANTA ANA</t>
+  </si>
+  <si>
+    <t>SANTA CLARA</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>SANTA ELENA</t>
+  </si>
+  <si>
+    <t>SANTA ISABEL</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SANTIAGO DE PILLARO</t>
+  </si>
+  <si>
+    <t>SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>SAN VICENTE</t>
+  </si>
+  <si>
+    <t>SAQUISILI</t>
+  </si>
+  <si>
+    <t>SARAGURO</t>
+  </si>
+  <si>
+    <t>SEVILLA DE ORO</t>
+  </si>
+  <si>
+    <t>SHUSHUFINDI</t>
+  </si>
+  <si>
+    <t>SIGHOS</t>
+  </si>
+  <si>
+    <t>SIGSIG</t>
+  </si>
+  <si>
+    <t>SIMON BOLIVAR</t>
+  </si>
+  <si>
+    <t>SOZORANGA</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>SUCUA</t>
+  </si>
+  <si>
+    <t>SUCUMBIOS</t>
+  </si>
+  <si>
+    <t>SUSCAL</t>
+  </si>
+  <si>
+    <t>TAISHA</t>
+  </si>
+  <si>
+    <t>TENA</t>
+  </si>
+  <si>
+    <t>TISALEO</t>
+  </si>
+  <si>
+    <t>TIWINTZA</t>
+  </si>
+  <si>
+    <t>TOSAGUA</t>
+  </si>
+  <si>
+    <t>TULCAN</t>
+  </si>
+  <si>
+    <t>URDANETA</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VENTANAS</t>
+  </si>
+  <si>
+    <t>VINCES</t>
+  </si>
+  <si>
+    <t>YACUAMBI</t>
+  </si>
+  <si>
+    <t>YANTZAZA</t>
+  </si>
+  <si>
+    <t>ZAMORA</t>
+  </si>
+  <si>
+    <t>ZAPOTILLO</t>
+  </si>
+  <si>
+    <t>ZARUMA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +995,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -406,21 +1017,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +1285,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +1293,7 @@
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -705,43 +1301,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -770,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +1406,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja2!$B$2:$B$7</xm:f>
+            <xm:f>Hoja2!$B$2:$B$211</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
@@ -840,16 +1436,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -858,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -867,80 +1463,1097 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>14</v>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>17</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>19</v>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>20</v>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B211">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>